--- a/biology/Microbiologie/Oxalobacteraceae/Oxalobacteraceae.xlsx
+++ b/biology/Microbiologie/Oxalobacteraceae/Oxalobacteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille de bactéries des Oxalobacteraceae fait partie de l'ordre Burkholderiales. Cette famille inclut à la fois des bactéries anaérobies et aérobies.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (18 mars 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (18 mars 2020) :
 genre Collimonas De Boer, Leveau, Kowalchuk, Klein Gunnewier, Abeln, Figge, Sjollema, Janse &amp; van Veen, 2004
 genre Duganella Hiraishi, Shin &amp; Sugiyama, 1997
 genre Herbaspirillum J.I. Baldani, V.L.D. Baldani, Seldin &amp; Döbereiner, 1986
@@ -525,7 +539,7 @@
 genre Oxalobacter Allison, Dawson, Mayberry Foss, 1985
 genre Telluria Bowman, Sly, Hayward, Spiegel Stackebrandt, 1993
 genre Undibacterium Kämpfer, Rosselló-Mora, Hermansson, Persson, Huber, Falsen &amp; Busse, 2007
-Selon Catalogue of Life                                   (18 mars 2020)[2] et ITIS      (18 mars 2020)[3] :
+Selon Catalogue of Life                                   (18 mars 2020) et ITIS      (18 mars 2020) :
 genre Collimonas de Boer &amp; al., 2004
 genre Duganella Hiraishi &amp; al., 1997
 genre Glaciimonas Zhang &amp; al., 2011
@@ -538,7 +552,7 @@
 genre Oxalobacter Allison &amp; al., 1985
 genre Telluria Bowman &amp; al., 1993
 genre Undibacterium Kämpfer &amp; al., 2007 emend. Eder &amp; al., 2011
-Selon NCBI  (18 mars 2020)[4] :
+Selon NCBI  (18 mars 2020) :
 genre Actimicrobium "" Kim &amp; al. 2011
 genre Candidatus Zinderia "" McCutcheon &amp; Moran 2010
 genre Collimonas de Boer &amp; al. 2004
